--- a/ptg_shortlist.xlsx
+++ b/ptg_shortlist.xlsx
@@ -20,72 +20,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">Adjorlolo 2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+  <si>
+    <t xml:space="preserve">study name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effect size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjorlolo et al. (2022) </t>
   </si>
   <si>
     <t xml:space="preserve">PTGI-SF</t>
   </si>
   <si>
-    <t xml:space="preserve">Arnout 2021 </t>
+    <t xml:space="preserve">Arnout and Al‐Sufyani (2021) </t>
   </si>
   <si>
     <t xml:space="preserve">PTGI</t>
   </si>
   <si>
-    <t xml:space="preserve">Chasson 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chen 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chen 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gul 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalaizaki 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lau 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewis 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyu 2021a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyu 2021b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northfield 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulset 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vazquez 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willey 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeung 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yildiz 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhang 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhou 2020</t>
+    <t xml:space="preserve">Chasson et al. (2022) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chen &amp; Tang (2021) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chen et al.(2020) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gul (2023) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalaitzaki et al. (2022) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lau et al. (2021) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewis et al. (2022) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyu et al. (2021) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo (2022) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northfield &amp; Johnston (2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulset &amp; Soest (2022) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vazquez et al. (2021) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willey et al.(2022) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeung et al. (2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yıldız (2021) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhang et al. (2021) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhou et al.(2020) </t>
   </si>
 </sst>
 </file>
@@ -100,6 +112,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -117,20 +130,33 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -159,12 +185,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -187,11 +221,14 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.97"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -200,197 +237,197 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>22.258</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D2" s="1" t="n">
         <v>5.052</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E2" s="1" t="n">
         <f aca="false">226 + 155</f>
         <v>381</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="n">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>65.195</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>5.052</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="D3" s="1" t="n">
+        <v>17.944</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <f aca="false">94+141+84+46</f>
         <v>365</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="n">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>55.78</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D4" s="1" t="n">
         <v>19.1</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E4" s="1" t="n">
         <f aca="false">517+399</f>
         <v>916</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="n">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <f aca="false">38.09 * 10.7/100 + 73.78 * 20.1/100 + 57.91 * 42.2/100 + 79.47 * 27/100</f>
         <v>64.80033</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D5" s="1" t="n">
         <v>10.44</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E5" s="1" t="n">
         <v>422</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="C6" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D6" s="1" t="n">
         <v>11.5</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E6" s="1" t="n">
         <v>12596</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="n">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>45.57</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D7" s="1" t="n">
         <v>11.7</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E7" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>47.73</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D8" s="1" t="n">
         <v>24.63</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E8" s="1" t="n">
         <v>352</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>53.13</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D9" s="1" t="n">
         <v>17.22</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <f aca="false"> 235 + 92</f>
+      <c r="E9" s="1" t="n">
+        <f aca="false">235 + 92</f>
         <v>327</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="n">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>12.64</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D10" s="1" t="n">
         <v>11.01</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E10" s="1" t="n">
         <v>1424</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="n">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>78.4</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D11" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E11" s="1" t="n">
         <v>251</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>401</v>
-      </c>
-    </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
+      <c r="A12" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>96.26</v>
@@ -403,11 +440,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
+      <c r="A13" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>47</v>
@@ -420,11 +457,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
+      <c r="A14" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>21.6</v>
@@ -437,11 +474,11 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
+      <c r="A15" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>36.51</v>
@@ -454,11 +491,11 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
+      <c r="A16" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>47.95</v>
@@ -471,28 +508,28 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
+      <c r="A17" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>2.19</v>
+        <v>21.9</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.97</v>
+        <v>9.7</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>1510</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
+      <c r="A18" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>63.49</v>
@@ -505,11 +542,11 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
+      <c r="A19" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>67.17</v>
@@ -522,11 +559,11 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
+      <c r="A20" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>58.34</v>

--- a/ptg_shortlist.xlsx
+++ b/ptg_shortlist.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
-    <t xml:space="preserve">study name</t>
+    <t xml:space="preserve">Source </t>
   </si>
   <si>
     <t xml:space="preserve">scale type</t>
@@ -185,9 +185,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -222,7 +226,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -234,344 +238,344 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>22.258</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>5.052</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <f aca="false">226 + 155</f>
         <v>381</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>65.195</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>17.944</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <f aca="false">94+141+84+46</f>
         <v>365</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>55.78</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>19.1</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <f aca="false">517+399</f>
         <v>916</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <f aca="false">38.09 * 10.7/100 + 73.78 * 20.1/100 + 57.91 * 42.2/100 + 79.47 * 27/100</f>
         <v>64.80033</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>10.44</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>422</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>11.5</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>12596</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="n">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>45.57</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>11.7</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="n">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>47.73</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>24.63</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>352</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="n">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>53.13</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>17.22</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <f aca="false">235 + 92</f>
         <v>327</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>12.64</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>11.01</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>1424</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="n">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>78.4</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2" t="n">
         <v>251</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="n">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="n">
         <v>96.26</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>21.57</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>266</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="n">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <v>28.2</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <v>296</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2" t="n">
         <v>21.6</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2" t="n">
         <v>6.8</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2" t="n">
         <v>12686</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>36.51</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2" t="n">
         <v>7.6</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2" t="n">
         <v>1951</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="n">
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="n">
         <v>47.95</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2" t="n">
         <v>24.48</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2" t="n">
         <v>176</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2" t="n">
         <v>21.9</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2" t="n">
         <v>9.7</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2" t="n">
         <v>1510</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1" t="n">
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>63.49</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2" t="n">
         <v>20.64</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2" t="n">
         <v>292</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1" t="n">
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="n">
         <v>67.17</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="2" t="n">
         <v>14.79</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="2" t="n">
         <v>1790</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="n">
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="n">
         <v>58.34</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="2" t="n">
         <v>26.76</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="2" t="n">
         <v>442</v>
       </c>
     </row>

--- a/ptg_shortlist.xlsx
+++ b/ptg_shortlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C8CBA5-8D3B-2F48-9EED-CEE1E63AE725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DE12A7-1854-4E43-9F29-9C13361D008C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="500" windowWidth="19200" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -118,25 +118,76 @@
     <t>Mean Age</t>
   </si>
   <si>
-    <t>Gender Percentage</t>
-  </si>
-  <si>
     <t>PTSD</t>
   </si>
   <si>
     <t>Countries</t>
   </si>
   <si>
-    <t>Year of Publication</t>
-  </si>
-  <si>
-    <t>Groups With PTG</t>
-  </si>
-  <si>
-    <t>Patients with C19</t>
-  </si>
-  <si>
     <t>Ghana</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Pregant women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel </t>
+  </si>
+  <si>
+    <t>Nurses</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Patient relatives</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Front Line worker</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Nursing Students</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Male%</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Publication Year</t>
+  </si>
+  <si>
+    <t>å</t>
   </si>
 </sst>
 </file>
@@ -151,21 +202,15 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -173,32 +218,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,40 +538,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -562,14 +591,23 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>33</v>
+      <c r="C2">
+        <v>43.1</v>
+      </c>
+      <c r="D2">
+        <v>59.3</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -586,8 +624,23 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>7</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>31.8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>2021</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -604,8 +657,23 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>9</v>
+      </c>
+      <c r="C4">
+        <v>28.16</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>2022</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -622,8 +690,23 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>10</v>
+      </c>
+      <c r="C5">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>2021</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -640,8 +723,23 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>11</v>
+      </c>
+      <c r="C6">
+        <v>33.1</v>
+      </c>
+      <c r="D6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>2020</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -657,8 +755,20 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>12</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>2023</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
@@ -674,8 +784,23 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>13</v>
+      </c>
+      <c r="C8">
+        <v>35.36</v>
+      </c>
+      <c r="D8">
+        <v>24.2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <v>2022</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
@@ -691,8 +816,23 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>14</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>28.1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9">
+        <v>2021</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
@@ -709,8 +849,23 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>15</v>
+      </c>
+      <c r="C10">
+        <v>46.7</v>
+      </c>
+      <c r="D10">
+        <v>21.9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>2022</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -726,8 +881,23 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>16</v>
+      </c>
+      <c r="C11">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="D11">
+        <v>45.79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11">
+        <v>2021</v>
       </c>
       <c r="H11" t="s">
         <v>8</v>
@@ -743,8 +913,23 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>17</v>
+      </c>
+      <c r="C12">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>2022</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
@@ -760,8 +945,23 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>18</v>
+      </c>
+      <c r="C13">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D13">
+        <v>41.2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>2021</v>
       </c>
       <c r="H13" t="s">
         <v>8</v>
@@ -777,8 +977,23 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>19</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>43.6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>2022</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
@@ -794,8 +1009,23 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>20</v>
+      </c>
+      <c r="C15">
+        <v>45.16</v>
+      </c>
+      <c r="D15">
+        <v>47.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15">
+        <v>2021</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
@@ -811,8 +1041,23 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>21</v>
+      </c>
+      <c r="C16">
+        <v>76.3</v>
+      </c>
+      <c r="D16">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <v>2022</v>
       </c>
       <c r="H16" t="s">
         <v>8</v>
@@ -828,8 +1073,20 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>22</v>
+      </c>
+      <c r="C17">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>2022</v>
       </c>
       <c r="H17" t="s">
         <v>6</v>
@@ -845,8 +1102,23 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>23</v>
+      </c>
+      <c r="C18">
+        <v>21.2</v>
+      </c>
+      <c r="D18">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18">
+        <v>2021</v>
       </c>
       <c r="H18" t="s">
         <v>8</v>
@@ -862,8 +1134,20 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>24</v>
+      </c>
+      <c r="D19">
+        <v>0.6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19">
+        <v>2021</v>
       </c>
       <c r="H19" t="s">
         <v>8</v>
@@ -879,8 +1163,23 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>25</v>
+      </c>
+      <c r="C20">
+        <v>45.3</v>
+      </c>
+      <c r="D20">
+        <v>47.3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20">
+        <v>2020</v>
       </c>
       <c r="H20" t="s">
         <v>8</v>
@@ -893,6 +1192,11 @@
       </c>
       <c r="K20">
         <v>442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ptg_shortlist.xlsx
+++ b/ptg_shortlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DE12A7-1854-4E43-9F29-9C13361D008C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC87AA75-F3EA-1F4A-80B2-8C28A60B9E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17100" yWindow="780" windowWidth="17100" windowHeight="21360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -187,7 +187,28 @@
     <t>Publication Year</t>
   </si>
   <si>
-    <t>å</t>
+    <t>PTG-S</t>
+  </si>
+  <si>
+    <t>El-Khoury Malhame et al. (2023)</t>
+  </si>
+  <si>
+    <t>Yao et al. (2023)</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Medical Doctors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das et al. (2023) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tu et al. (2023) </t>
+  </si>
+  <si>
+    <t>PHD Students</t>
   </si>
 </sst>
 </file>
@@ -538,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1194,9 +1215,84 @@
         <v>442</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>32.46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21">
+        <v>2023</v>
+      </c>
+      <c r="H21" t="s">
         <v>50</v>
+      </c>
+      <c r="K21">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>28.3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22">
+        <v>2023</v>
+      </c>
+      <c r="K22">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>61.62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23">
+        <v>2023</v>
+      </c>
+      <c r="K23">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/ptg_shortlist.xlsx
+++ b/ptg_shortlist.xlsx
@@ -1,36 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC87AA75-F3EA-1F4A-80B2-8C28A60B9E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="780" windowWidth="17100" windowHeight="21360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27825" windowHeight="12765" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -40,6 +19,24 @@
     <t xml:space="preserve">Source </t>
   </si>
   <si>
+    <t>PTSD</t>
+  </si>
+  <si>
+    <t>Mean Age</t>
+  </si>
+  <si>
+    <t>Male%</t>
+  </si>
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Publication Year</t>
+  </si>
+  <si>
     <t>scale type</t>
   </si>
   <si>
@@ -55,39 +52,81 @@
     <t xml:space="preserve">Adjorlolo et al. (2022) </t>
   </si>
   <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
     <t>PTGI-SF</t>
   </si>
   <si>
     <t xml:space="preserve">Arnout and Al‐Sufyani (2021) </t>
   </si>
   <si>
+    <t xml:space="preserve">Saudi Arabia </t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
     <t>PTGI</t>
   </si>
   <si>
     <t xml:space="preserve">Chasson et al. (2022) </t>
   </si>
   <si>
+    <t xml:space="preserve">Israel </t>
+  </si>
+  <si>
+    <t>Pregant women</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chen &amp; Tang (2021) </t>
   </si>
   <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Patient relatives</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chen et al.(2020) </t>
   </si>
   <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Nurses</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gul (2023) </t>
   </si>
   <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kalaitzaki et al. (2022) </t>
   </si>
   <si>
+    <t>Greece</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lau et al. (2021) </t>
   </si>
   <si>
     <t xml:space="preserve">Lewis et al. (2022) </t>
   </si>
   <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lyu et al. (2021) </t>
   </si>
   <si>
+    <t>Front Line worker</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mo (2022) </t>
   </si>
   <si>
@@ -97,9 +136,15 @@
     <t xml:space="preserve">Ulset &amp; Soest (2022) </t>
   </si>
   <si>
+    <t>Norway</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vazquez et al. (2021) </t>
   </si>
   <si>
+    <t>Spain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Willey et al.(2022) </t>
   </si>
   <si>
@@ -109,82 +154,19 @@
     <t xml:space="preserve">Yıldız (2021) </t>
   </si>
   <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Nursing Students</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zhang et al. (2021) </t>
   </si>
   <si>
     <t xml:space="preserve">Zhou et al.(2020) </t>
   </si>
   <si>
-    <t>Mean Age</t>
-  </si>
-  <si>
-    <t>PTSD</t>
-  </si>
-  <si>
-    <t>Countries</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Patients</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Pregant women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel </t>
-  </si>
-  <si>
-    <t>Nurses</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Patient relatives</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Front Line worker</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Nursing Students</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Male%</t>
-  </si>
-  <si>
-    <t>Groups</t>
-  </si>
-  <si>
-    <t>Publication Year</t>
+    <t>Yao et al. (2023)</t>
   </si>
   <si>
     <t>PTG-S</t>
@@ -193,16 +175,13 @@
     <t>El-Khoury Malhame et al. (2023)</t>
   </si>
   <si>
-    <t>Yao et al. (2023)</t>
-  </si>
-  <si>
     <t>Lebanon</t>
   </si>
   <si>
+    <t xml:space="preserve">Das et al. (2023) </t>
+  </si>
+  <si>
     <t>Medical Doctors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das et al. (2023) </t>
   </si>
   <si>
     <t xml:space="preserve">Tu et al. (2023) </t>
@@ -214,24 +193,366 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -239,24 +560,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -305,7 +912,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -338,26 +945,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -390,23 +980,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,72 +1121,71 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="6.75" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
+    <col min="11" max="11" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>43.1</v>
@@ -622,31 +1194,31 @@
         <v>59.3</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>2022</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I2">
-        <v>22.257999999999999</v>
+        <v>22.258</v>
       </c>
       <c r="J2">
-        <v>5.0519999999999996</v>
+        <v>5.052</v>
       </c>
       <c r="K2">
-        <f>226 + 155</f>
+        <f>226+155</f>
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>35</v>
@@ -655,31 +1227,31 @@
         <v>31.8</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>2021</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I3">
-        <v>65.194999999999993</v>
+        <v>65.195</v>
       </c>
       <c r="J3">
-        <v>17.943999999999999</v>
+        <v>17.944</v>
       </c>
       <c r="K3">
         <f>94+141+84+46</f>
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>28.16</v>
@@ -688,53 +1260,53 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>2022</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>55.78</v>
       </c>
       <c r="J4">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="K4">
         <f>517+399</f>
         <v>916</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="D5">
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>2021</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I5">
-        <f>38.09 * 10.7/100 + 73.78 * 20.1/100 + 57.91 * 42.2/100 + 79.47 * 27/100</f>
-        <v>64.800330000000002</v>
+        <f>38.09*10.7/100+73.78*20.1/100+57.91*42.2/100+79.47*27/100</f>
+        <v>64.80033</v>
       </c>
       <c r="J5">
         <v>10.44</v>
@@ -743,27 +1315,27 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>33.1</v>
       </c>
       <c r="D6">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>2020</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>28</v>
@@ -775,24 +1347,24 @@
         <v>12596</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>2023</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I7">
         <v>45.57</v>
@@ -804,9 +1376,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>35.36</v>
@@ -815,16 +1387,16 @@
         <v>24.2</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <v>2022</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I8">
         <v>47.73</v>
@@ -836,9 +1408,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>35</v>
@@ -847,16 +1419,16 @@
         <v>28.1</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G9">
         <v>2021</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I9">
         <v>53.13</v>
@@ -865,13 +1437,13 @@
         <v>17.22</v>
       </c>
       <c r="K9">
-        <f>235 + 92</f>
+        <f>235+92</f>
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>46.7</v>
@@ -880,16 +1452,16 @@
         <v>21.9</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <v>2022</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I10">
         <v>12.64</v>
@@ -901,30 +1473,30 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>35.409999999999997</v>
+        <v>35.41</v>
       </c>
       <c r="D11">
         <v>45.79</v>
       </c>
       <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
         <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
       </c>
       <c r="G11">
         <v>2021</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I11">
-        <v>78.400000000000006</v>
+        <v>78.4</v>
       </c>
       <c r="J11">
         <v>14</v>
@@ -933,27 +1505,27 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>32.340000000000003</v>
+        <v>32.34</v>
       </c>
       <c r="D12">
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G12">
         <v>2022</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I12">
         <v>96.26</v>
@@ -965,27 +1537,27 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="D13">
         <v>41.2</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G13">
         <v>2021</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I13">
         <v>47</v>
@@ -997,9 +1569,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -1008,16 +1580,16 @@
         <v>43.6</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G14">
         <v>2022</v>
       </c>
       <c r="H14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I14">
         <v>21.6</v>
@@ -1029,9 +1601,9 @@
         <v>12686</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>45.16</v>
@@ -1040,16 +1612,16 @@
         <v>47.1</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G15">
         <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I15">
         <v>36.51</v>
@@ -1061,9 +1633,9 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>76.3</v>
@@ -1072,16 +1644,16 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G16">
         <v>2022</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I16">
         <v>47.95</v>
@@ -1093,38 +1665,38 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G17">
         <v>2022</v>
       </c>
       <c r="H17" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I17">
         <v>21.9</v>
       </c>
       <c r="J17">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="K17">
         <v>1510</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>21.2</v>
@@ -1136,13 +1708,13 @@
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G18">
         <v>2021</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I18">
         <v>63.49</v>
@@ -1154,24 +1726,24 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D19">
         <v>0.6</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G19">
         <v>2021</v>
       </c>
       <c r="H19" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I19">
         <v>67.17</v>
@@ -1183,9 +1755,9 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>45.3</v>
@@ -1194,16 +1766,16 @@
         <v>47.3</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G20">
         <v>2020</v>
       </c>
       <c r="H20" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I20">
         <v>58.34</v>
@@ -1215,32 +1787,32 @@
         <v>442</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>32.46</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G21">
         <v>2023</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21">
         <v>1512</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>25</v>
@@ -1252,7 +1824,7 @@
         <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G22">
         <v>2023</v>
@@ -1261,9 +1833,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23">
         <v>55</v>
@@ -1272,10 +1844,10 @@
         <v>61.62</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G23">
         <v>2023</v>
@@ -1284,7 +1856,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1292,12 +1864,12 @@
         <v>57</v>
       </c>
       <c r="H24" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/ptg_shortlist.xlsx
+++ b/ptg_shortlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27825" windowHeight="12765" tabRatio="500"/>
+    <workbookView windowWidth="19110" windowHeight="18150" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
   <si>
+    <t>scale type</t>
+  </si>
+  <si>
+    <t>effect size</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>sample size</t>
+  </si>
+  <si>
     <t>PTSD</t>
   </si>
   <si>
@@ -37,42 +49,30 @@
     <t>Publication Year</t>
   </si>
   <si>
-    <t>scale type</t>
-  </si>
-  <si>
-    <t>effect size</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>sample size</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adjorlolo et al. (2022) </t>
   </si>
   <si>
+    <t>PTGI-SF</t>
+  </si>
+  <si>
     <t>Ghana</t>
   </si>
   <si>
     <t>Patients</t>
   </si>
   <si>
-    <t>PTGI-SF</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arnout and Al‐Sufyani (2021) </t>
   </si>
   <si>
+    <t>PTGI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia </t>
   </si>
   <si>
     <t>General</t>
   </si>
   <si>
-    <t>PTGI</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chasson et al. (2022) </t>
   </si>
   <si>
@@ -169,9 +169,6 @@
     <t>Yao et al. (2023)</t>
   </si>
   <si>
-    <t>PTG-S</t>
-  </si>
-  <si>
     <t>El-Khoury Malhame et al. (2023)</t>
   </si>
   <si>
@@ -188,6 +185,27 @@
   </si>
   <si>
     <t>PHD Students</t>
+  </si>
+  <si>
+    <t>Wang et. al (2023)</t>
+  </si>
+  <si>
+    <t>Castiglioni et. al (2023)</t>
+  </si>
+  <si>
+    <t>Barnicot et al (2023)</t>
+  </si>
+  <si>
+    <t>Morales et al (2023)</t>
+  </si>
+  <si>
+    <t>Lan et al (2023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalaitzaki et al. (2023) </t>
+  </si>
+  <si>
+    <t>Bai et al. (2023)</t>
   </si>
 </sst>
 </file>
@@ -195,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -229,31 +247,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,9 +269,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,7 +301,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,65 +369,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -379,175 +397,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,16 +579,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -581,15 +599,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +635,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -635,165 +653,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1127,25 +1145,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="29.625" customWidth="1"/>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="6.75" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="9.75" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="7.375" customWidth="1"/>
-    <col min="11" max="11" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="6.75" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1187,684 +1205,844 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
       <c r="C2">
-        <v>43.1</v>
+        <v>22.258</v>
       </c>
       <c r="D2">
-        <v>59.3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>2022</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>22.258</v>
-      </c>
-      <c r="J2">
         <v>5.052</v>
       </c>
-      <c r="K2">
+      <c r="E2">
         <f>226+155</f>
         <v>381</v>
+      </c>
+      <c r="G2">
+        <v>43.1</v>
+      </c>
+      <c r="H2">
+        <v>59.3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>15</v>
       </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
       <c r="C3">
-        <v>35</v>
+        <v>65.195</v>
       </c>
       <c r="D3">
-        <v>31.8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>2021</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3">
-        <v>65.195</v>
-      </c>
-      <c r="J3">
         <v>17.944</v>
       </c>
-      <c r="K3">
+      <c r="E3">
         <f>94+141+84+46</f>
         <v>365</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>31.8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>19</v>
       </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
       <c r="C4">
-        <v>28.16</v>
+        <v>55.78</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>2022</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4">
-        <v>55.78</v>
-      </c>
-      <c r="J4">
         <v>19.1</v>
       </c>
-      <c r="K4">
+      <c r="E4">
         <f>517+399</f>
         <v>916</v>
+      </c>
+      <c r="G4">
+        <v>28.16</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>22</v>
       </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
       <c r="C5">
-        <v>32.7</v>
-      </c>
-      <c r="D5">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <v>2021</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5">
         <f>38.09*10.7/100+73.78*20.1/100+57.91*42.2/100+79.47*27/100</f>
         <v>64.80033</v>
       </c>
-      <c r="J5">
+      <c r="D5">
         <v>10.44</v>
       </c>
+      <c r="E5">
+        <v>422</v>
+      </c>
+      <c r="G5">
+        <v>32.7</v>
+      </c>
+      <c r="H5">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
       <c r="K5">
-        <v>422</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>25</v>
       </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
       <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>11.5</v>
+      </c>
+      <c r="E6">
+        <v>12596</v>
+      </c>
+      <c r="G6">
         <v>33.1</v>
       </c>
-      <c r="D6">
+      <c r="H6">
         <v>4.4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>27</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <v>2020</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>28</v>
-      </c>
-      <c r="J6">
-        <v>11.5</v>
-      </c>
-      <c r="K6">
-        <v>12596</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>28</v>
       </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>45.57</v>
+      </c>
       <c r="D7">
+        <v>11.7</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="H7">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7">
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7">
         <v>2023</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7">
-        <v>45.57</v>
-      </c>
-      <c r="J7">
-        <v>11.7</v>
-      </c>
-      <c r="K7">
-        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>30</v>
       </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
       <c r="C8">
+        <v>47.73</v>
+      </c>
+      <c r="D8">
+        <v>24.63</v>
+      </c>
+      <c r="E8">
+        <v>352</v>
+      </c>
+      <c r="G8">
         <v>35.36</v>
       </c>
-      <c r="D8">
+      <c r="H8">
         <v>24.2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8">
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
         <v>2022</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8">
-        <v>47.73</v>
-      </c>
-      <c r="J8">
-        <v>24.63</v>
-      </c>
-      <c r="K8">
-        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>32</v>
       </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
       <c r="C9">
-        <v>35</v>
+        <v>53.13</v>
       </c>
       <c r="D9">
-        <v>28.1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9">
-        <v>2021</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9">
-        <v>53.13</v>
-      </c>
-      <c r="J9">
         <v>17.22</v>
       </c>
-      <c r="K9">
+      <c r="E9">
         <f>235+92</f>
         <v>327</v>
+      </c>
+      <c r="G9">
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <v>28.1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>2021</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>33</v>
       </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
       <c r="C10">
+        <v>12.64</v>
+      </c>
+      <c r="D10">
+        <v>11.01</v>
+      </c>
+      <c r="E10">
+        <v>1424</v>
+      </c>
+      <c r="G10">
         <v>46.7</v>
       </c>
-      <c r="D10">
+      <c r="H10">
         <v>21.9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="I10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10">
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10">
         <v>2022</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10">
-        <v>12.64</v>
-      </c>
-      <c r="J10">
-        <v>11.01</v>
-      </c>
-      <c r="K10">
-        <v>1424</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>35</v>
       </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
       <c r="C11">
+        <v>78.4</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>251</v>
+      </c>
+      <c r="G11">
         <v>35.41</v>
       </c>
-      <c r="D11">
+      <c r="H11">
         <v>45.79</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" t="s">
         <v>36</v>
       </c>
-      <c r="G11">
+      <c r="K11">
         <v>2021</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11">
-        <v>78.4</v>
-      </c>
-      <c r="J11">
-        <v>14</v>
-      </c>
-      <c r="K11">
-        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>37</v>
       </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
       <c r="C12">
+        <v>96.26</v>
+      </c>
+      <c r="D12">
+        <v>21.57</v>
+      </c>
+      <c r="E12">
+        <v>266</v>
+      </c>
+      <c r="G12">
         <v>32.34</v>
       </c>
-      <c r="D12">
+      <c r="H12">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
+      <c r="I12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
         <v>27</v>
       </c>
-      <c r="G12">
+      <c r="K12">
         <v>2022</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12">
-        <v>96.26</v>
-      </c>
-      <c r="J12">
-        <v>21.57</v>
-      </c>
-      <c r="K12">
-        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>38</v>
       </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
       <c r="C13">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>28.2</v>
+      </c>
+      <c r="E13">
+        <v>296</v>
+      </c>
+      <c r="G13">
         <v>39.7</v>
       </c>
-      <c r="D13">
+      <c r="H13">
         <v>41.2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="I13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13">
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13">
         <v>2021</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13">
-        <v>47</v>
-      </c>
-      <c r="J13">
-        <v>28.2</v>
-      </c>
-      <c r="K13">
-        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>39</v>
       </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
       <c r="C14">
+        <v>21.6</v>
+      </c>
+      <c r="D14">
+        <v>6.8</v>
+      </c>
+      <c r="E14">
+        <v>12686</v>
+      </c>
+      <c r="G14">
         <v>16</v>
       </c>
-      <c r="D14">
+      <c r="H14">
         <v>43.6</v>
       </c>
-      <c r="E14" t="s">
+      <c r="I14" t="s">
         <v>40</v>
       </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14">
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14">
         <v>2022</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14">
-        <v>21.6</v>
-      </c>
-      <c r="J14">
-        <v>6.8</v>
-      </c>
-      <c r="K14">
-        <v>12686</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>41</v>
       </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
       <c r="C15">
+        <v>36.51</v>
+      </c>
+      <c r="D15">
+        <v>7.6</v>
+      </c>
+      <c r="E15">
+        <v>1951</v>
+      </c>
+      <c r="G15">
         <v>45.16</v>
       </c>
-      <c r="D15">
+      <c r="H15">
         <v>47.1</v>
       </c>
-      <c r="E15" t="s">
+      <c r="I15" t="s">
         <v>42</v>
       </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15">
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
         <v>2021</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15">
-        <v>36.51</v>
-      </c>
-      <c r="J15">
-        <v>7.6</v>
-      </c>
-      <c r="K15">
-        <v>1951</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>43</v>
       </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
       <c r="C16">
+        <v>47.95</v>
+      </c>
+      <c r="D16">
+        <v>24.48</v>
+      </c>
+      <c r="E16">
+        <v>176</v>
+      </c>
+      <c r="G16">
         <v>76.3</v>
       </c>
-      <c r="D16">
+      <c r="H16">
         <v>74</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16">
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16">
         <v>2022</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16">
-        <v>47.95</v>
-      </c>
-      <c r="J16">
-        <v>24.48</v>
-      </c>
-      <c r="K16">
-        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>44</v>
       </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
       <c r="C17">
+        <v>21.9</v>
+      </c>
+      <c r="D17">
+        <v>9.7</v>
+      </c>
+      <c r="E17">
+        <v>1510</v>
+      </c>
+      <c r="G17">
         <v>36.8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="I17" t="s">
         <v>23</v>
       </c>
-      <c r="F17" t="s">
+      <c r="J17" t="s">
         <v>27</v>
       </c>
-      <c r="G17">
+      <c r="K17">
         <v>2022</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17">
-        <v>21.9</v>
-      </c>
-      <c r="J17">
-        <v>9.7</v>
-      </c>
-      <c r="K17">
-        <v>1510</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>45</v>
       </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
       <c r="C18">
+        <v>63.49</v>
+      </c>
+      <c r="D18">
+        <v>20.64</v>
+      </c>
+      <c r="E18">
+        <v>292</v>
+      </c>
+      <c r="G18">
         <v>21.2</v>
       </c>
-      <c r="D18">
+      <c r="H18">
         <v>63</v>
       </c>
-      <c r="E18" t="s">
+      <c r="I18" t="s">
         <v>46</v>
       </c>
-      <c r="F18" t="s">
+      <c r="J18" t="s">
         <v>47</v>
       </c>
-      <c r="G18">
+      <c r="K18">
         <v>2021</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18">
-        <v>63.49</v>
-      </c>
-      <c r="J18">
-        <v>20.64</v>
-      </c>
-      <c r="K18">
-        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>48</v>
       </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>67.17</v>
+      </c>
       <c r="D19">
+        <v>14.79</v>
+      </c>
+      <c r="E19">
+        <v>1790</v>
+      </c>
+      <c r="H19">
         <v>0.6</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" t="s">
+      <c r="J19" t="s">
         <v>27</v>
       </c>
-      <c r="G19">
+      <c r="K19">
         <v>2021</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19">
-        <v>67.17</v>
-      </c>
-      <c r="J19">
-        <v>14.79</v>
-      </c>
-      <c r="K19">
-        <v>1790</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>49</v>
       </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
       <c r="C20">
+        <v>58.34</v>
+      </c>
+      <c r="D20">
+        <v>26.76</v>
+      </c>
+      <c r="E20">
+        <v>442</v>
+      </c>
+      <c r="G20">
         <v>45.3</v>
       </c>
-      <c r="D20">
+      <c r="H20">
         <v>47.3</v>
       </c>
-      <c r="E20" t="s">
+      <c r="I20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20">
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
         <v>2020</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20">
-        <v>58.34</v>
-      </c>
-      <c r="J20">
-        <v>26.76</v>
-      </c>
-      <c r="K20">
-        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>50</v>
       </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
       <c r="C21">
+        <v>71.75</v>
+      </c>
+      <c r="D21">
+        <v>18.53</v>
+      </c>
+      <c r="E21">
+        <v>1512</v>
+      </c>
+      <c r="G21">
         <v>32.46</v>
       </c>
-      <c r="E21" t="s">
+      <c r="I21" t="s">
         <v>23</v>
       </c>
-      <c r="F21" t="s">
+      <c r="J21" t="s">
         <v>27</v>
       </c>
-      <c r="G21">
+      <c r="K21">
         <v>2023</v>
-      </c>
-      <c r="H21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21">
-        <v>1512</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>30.33</v>
+      </c>
+      <c r="D22">
+        <v>11.65</v>
+      </c>
+      <c r="E22">
+        <v>252</v>
+      </c>
+      <c r="G22">
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <v>28.3</v>
+      </c>
+      <c r="I22" t="s">
         <v>52</v>
       </c>
-      <c r="C22">
-        <v>25</v>
-      </c>
-      <c r="D22">
-        <v>28.3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22">
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22">
         <v>2023</v>
-      </c>
-      <c r="K22">
-        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>64.81</v>
+      </c>
+      <c r="D23">
+        <v>20.27</v>
+      </c>
+      <c r="E23">
+        <v>166</v>
+      </c>
+      <c r="G23">
+        <v>55</v>
+      </c>
+      <c r="H23">
+        <v>61.62</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="s">
         <v>54</v>
       </c>
-      <c r="C23">
+      <c r="K23">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="D23">
-        <v>61.62</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23">
-        <v>2023</v>
-      </c>
-      <c r="K23">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>46.81</v>
+      </c>
+      <c r="D24">
+        <v>11.93</v>
+      </c>
+      <c r="E24">
+        <v>290</v>
+      </c>
+      <c r="J24" t="s">
         <v>56</v>
       </c>
-      <c r="F24" t="s">
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>57</v>
       </c>
-      <c r="H24" t="s">
-        <v>14</v>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>63.36</v>
+      </c>
+      <c r="D25">
+        <v>20.91</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>31.82</v>
+      </c>
+      <c r="D26">
+        <v>23.1</v>
+      </c>
+      <c r="E26">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>20.35</v>
+      </c>
+      <c r="D27">
+        <v>10.92</v>
+      </c>
+      <c r="E27">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>51.44</v>
+      </c>
+      <c r="D28">
+        <v>12.5</v>
+      </c>
+      <c r="E28">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>62.83</v>
+      </c>
+      <c r="D29">
+        <v>23.19</v>
+      </c>
+      <c r="E29">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <f>(53.97*253+45.56*176)/(253+176)</f>
+        <v>50.5197435897436</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <f>253+176</f>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>75.47</v>
+      </c>
+      <c r="D31">
+        <v>21.8</v>
+      </c>
+      <c r="E31">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39">
+        <f>SUM(E2:E36)</f>
+        <v>42386</v>
       </c>
     </row>
   </sheetData>

--- a/ptg_shortlist.xlsx
+++ b/ptg_shortlist.xlsx
@@ -1145,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12"/>
@@ -1974,7 +1974,7 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>51.44</v>
@@ -2037,12 +2037,6 @@
       </c>
       <c r="E31">
         <v>407</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5">
-      <c r="E39">
-        <f>SUM(E2:E36)</f>
-        <v>42386</v>
       </c>
     </row>
   </sheetData>

--- a/ptg_shortlist.xlsx
+++ b/ptg_shortlist.xlsx
@@ -1,15 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C05D740-9BD1-E547-BFC9-301E4F79A5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19110" windowHeight="18150" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="19120" windowHeight="18160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -211,366 +229,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -578,310 +258,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1139,34 +534,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.625" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="7.375" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="5.625" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="6.75" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1209,10 +604,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>22.258</v>
+        <v>22.257999999999999</v>
       </c>
       <c r="D2">
-        <v>5.052</v>
+        <v>5.0519999999999996</v>
       </c>
       <c r="E2">
         <f>226+155</f>
@@ -1234,7 +629,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1242,10 +637,10 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>65.195</v>
+        <v>65.194999999999993</v>
       </c>
       <c r="D3">
-        <v>17.944</v>
+        <v>17.943999999999999</v>
       </c>
       <c r="E3">
         <f>94+141+84+46</f>
@@ -1267,7 +662,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1278,7 +673,7 @@
         <v>55.78</v>
       </c>
       <c r="D4">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E4">
         <f>517+399</f>
@@ -1300,7 +695,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1309,7 +704,7 @@
       </c>
       <c r="C5">
         <f>38.09*10.7/100+73.78*20.1/100+57.91*42.2/100+79.47*27/100</f>
-        <v>64.80033</v>
+        <v>64.800330000000002</v>
       </c>
       <c r="D5">
         <v>10.44</v>
@@ -1318,7 +713,7 @@
         <v>422</v>
       </c>
       <c r="G5">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -1333,7 +728,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1353,7 +748,7 @@
         <v>33.1</v>
       </c>
       <c r="H6">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I6" t="s">
         <v>26</v>
@@ -1365,7 +760,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1394,7 +789,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1426,7 +821,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1459,7 +854,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1491,7 +886,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1499,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>78.4</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="D11">
         <v>14</v>
@@ -1508,7 +903,7 @@
         <v>251</v>
       </c>
       <c r="G11">
-        <v>35.41</v>
+        <v>35.409999999999997</v>
       </c>
       <c r="H11">
         <v>45.79</v>
@@ -1523,7 +918,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1540,7 +935,7 @@
         <v>266</v>
       </c>
       <c r="G12">
-        <v>32.34</v>
+        <v>32.340000000000003</v>
       </c>
       <c r="H12">
         <v>24</v>
@@ -1555,7 +950,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1572,7 +967,7 @@
         <v>296</v>
       </c>
       <c r="G13">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="H13">
         <v>41.2</v>
@@ -1587,7 +982,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1619,7 +1014,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1651,7 +1046,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1683,7 +1078,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1694,13 +1089,13 @@
         <v>21.9</v>
       </c>
       <c r="D17">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E17">
         <v>1510</v>
       </c>
       <c r="G17">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="I17" t="s">
         <v>23</v>
@@ -1712,7 +1107,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1744,7 +1139,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1773,7 +1168,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1805,7 +1200,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1834,7 +1229,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1866,7 +1261,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1898,7 +1293,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1918,7 +1313,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1935,7 +1330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1952,15 +1347,15 @@
         <v>733</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27">
-        <v>20.35</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="D27">
         <v>10.92</v>
@@ -1969,7 +1364,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1986,7 +1381,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2003,7 +1398,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -2012,7 +1407,7 @@
       </c>
       <c r="C30">
         <f>(53.97*253+45.56*176)/(253+176)</f>
-        <v>50.5197435897436</v>
+        <v>50.519743589743591</v>
       </c>
       <c r="D30">
         <v>20</v>
@@ -2022,7 +1417,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -2040,8 +1435,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/ptg_shortlist.xlsx
+++ b/ptg_shortlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margueritestella/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C05D740-9BD1-E547-BFC9-301E4F79A5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ED9BA47-98E7-4E42-9A7F-C138A9DBA208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="19120" windowHeight="18160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -224,6 +225,42 @@
   </si>
   <si>
     <t>Bai et al. (2023)</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>University Students</t>
+  </si>
+  <si>
+    <t>General students</t>
+  </si>
+  <si>
+    <t>Nurses/Healthcare workers</t>
+  </si>
+  <si>
+    <t>Health Care Workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy </t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No</t>
   </si>
 </sst>
 </file>
@@ -262,9 +299,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +583,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -557,7 +597,7 @@
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -613,6 +653,9 @@
         <f>226+155</f>
         <v>381</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G2">
         <v>43.1</v>
       </c>
@@ -646,6 +689,9 @@
         <f>94+141+84+46</f>
         <v>365</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G3">
         <v>35</v>
       </c>
@@ -679,6 +725,9 @@
         <f>517+399</f>
         <v>916</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G4">
         <v>28.16</v>
       </c>
@@ -712,6 +761,9 @@
       <c r="E5">
         <v>422</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G5">
         <v>32.700000000000003</v>
       </c>
@@ -744,6 +796,9 @@
       <c r="E6">
         <v>12596</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G6">
         <v>33.1</v>
       </c>
@@ -776,6 +831,9 @@
       <c r="E7">
         <v>300</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="H7">
         <v>50</v>
       </c>
@@ -805,6 +863,9 @@
       <c r="E8">
         <v>352</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G8">
         <v>35.36</v>
       </c>
@@ -838,6 +899,9 @@
         <f>235+92</f>
         <v>327</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G9">
         <v>35</v>
       </c>
@@ -870,6 +934,9 @@
       <c r="E10">
         <v>1424</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G10">
         <v>46.7</v>
       </c>
@@ -902,6 +969,9 @@
       <c r="E11">
         <v>251</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G11">
         <v>35.409999999999997</v>
       </c>
@@ -934,6 +1004,9 @@
       <c r="E12">
         <v>266</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G12">
         <v>32.340000000000003</v>
       </c>
@@ -966,6 +1039,9 @@
       <c r="E13">
         <v>296</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G13">
         <v>39.700000000000003</v>
       </c>
@@ -998,6 +1074,9 @@
       <c r="E14">
         <v>12686</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G14">
         <v>16</v>
       </c>
@@ -1030,6 +1109,9 @@
       <c r="E15">
         <v>1951</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G15">
         <v>45.16</v>
       </c>
@@ -1062,6 +1144,9 @@
       <c r="E16">
         <v>176</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G16">
         <v>76.3</v>
       </c>
@@ -1094,6 +1179,9 @@
       <c r="E17">
         <v>1510</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G17">
         <v>36.799999999999997</v>
       </c>
@@ -1123,6 +1211,9 @@
       <c r="E18">
         <v>292</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G18">
         <v>21.2</v>
       </c>
@@ -1155,6 +1246,9 @@
       <c r="E19">
         <v>1790</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="H19">
         <v>0.6</v>
       </c>
@@ -1184,6 +1278,9 @@
       <c r="E20">
         <v>442</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G20">
         <v>45.3</v>
       </c>
@@ -1216,6 +1313,9 @@
       <c r="E21">
         <v>1512</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G21">
         <v>32.46</v>
       </c>
@@ -1245,6 +1345,9 @@
       <c r="E22">
         <v>252</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G22">
         <v>25</v>
       </c>
@@ -1277,6 +1380,9 @@
       <c r="E23">
         <v>166</v>
       </c>
+      <c r="F23" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G23">
         <v>55</v>
       </c>
@@ -1309,8 +1415,23 @@
       <c r="E24">
         <v>290</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24">
+        <v>42.4</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="J24" t="s">
         <v>56</v>
+      </c>
+      <c r="K24">
+        <v>2023</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -1329,9 +1450,27 @@
       <c r="E25">
         <v>100</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25">
+        <v>22.42</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25">
+        <v>2023</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B26" t="s">
@@ -1346,9 +1485,27 @@
       <c r="E26">
         <v>733</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26">
+        <v>52.81</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <v>2023</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>59</v>
       </c>
       <c r="B27" t="s">
@@ -1362,6 +1519,24 @@
       </c>
       <c r="E27">
         <v>854</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27">
+        <v>46.68</v>
+      </c>
+      <c r="H27">
+        <v>18.3</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27">
+        <v>2023</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -1380,6 +1555,24 @@
       <c r="E28">
         <v>785</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28">
+        <v>34.79</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28">
+        <v>2023</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
@@ -1397,6 +1590,24 @@
       <c r="E29">
         <v>115</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29">
+        <v>22.37</v>
+      </c>
+      <c r="H29">
+        <v>49</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29">
+        <v>2023</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
@@ -1416,6 +1627,24 @@
         <f>253+176</f>
         <v>429</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30">
+        <v>41.6</v>
+      </c>
+      <c r="H30">
+        <v>22.5</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30">
+        <v>2023</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
@@ -1432,6 +1661,24 @@
       </c>
       <c r="E31">
         <v>407</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31">
+        <v>34.1</v>
+      </c>
+      <c r="H31">
+        <v>20.3</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>

--- a/ptg_shortlist.xlsx
+++ b/ptg_shortlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margueritestella/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qizhouduan/Documents/GitHub/ptg-covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ED9BA47-98E7-4E42-9A7F-C138A9DBA208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4D192A-2CDB-6146-824C-2EBEA56E2702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/ptg_shortlist.xlsx
+++ b/ptg_shortlist.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qizhouduan/Documents/GitHub/ptg-covid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4D192A-2CDB-6146-824C-2EBEA56E2702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A7EE04-2DF3-6348-9F96-B62611FCB6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3680" yWindow="1520" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="98">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -68,18 +71,39 @@
     <t>Publication Year</t>
   </si>
   <si>
+    <t xml:space="preserve">Social Support </t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Coping</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adjorlolo et al. (2022) </t>
   </si>
   <si>
     <t>PTGI-SF</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Ghana</t>
   </si>
   <si>
     <t>Patients</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19 Social Support Scale, extracted by the Medical Outcomes Study Social Support Survey </t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arnout and Al‐Sufyani (2021) </t>
   </si>
   <si>
@@ -119,18 +143,36 @@
     <t>Nurses</t>
   </si>
   <si>
+    <t xml:space="preserve">mentions it, but does not measure it </t>
+  </si>
+  <si>
+    <t>mentions does not measure</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gul (2023) </t>
   </si>
   <si>
     <t>Pakistan</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Interpersonal Support Evaluation List &amp;, Social Connectedness Scale-Revised</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kalaitzaki et al. (2022) </t>
   </si>
   <si>
     <t>Greece</t>
   </si>
   <si>
+    <t xml:space="preserve">ENRICHED Social Support Instrument </t>
+  </si>
+  <si>
+    <t>Brief Coping Orientation to Problems Experienced Inventory</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lau et al. (2021) </t>
   </si>
   <si>
@@ -140,6 +182,9 @@
     <t>UK</t>
   </si>
   <si>
+    <t>follow up survey asking if anyone close to them was positive for COVID-19, and how socially supported they felt by their friends (1-5)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lyu et al. (2021) </t>
   </si>
   <si>
@@ -149,24 +194,39 @@
     <t xml:space="preserve">Mo (2022) </t>
   </si>
   <si>
+    <t xml:space="preserve">perceived social support scale </t>
+  </si>
+  <si>
     <t>Northfield &amp; Johnston (2021)</t>
   </si>
   <si>
+    <t xml:space="preserve">The Multidimensional Scale of Perceived Social Support </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ulset &amp; Soest (2022) </t>
   </si>
   <si>
     <t>Norway</t>
   </si>
   <si>
+    <t>Parental Bonding Instrument/ Friendship Social Support assessed using one item</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vazquez et al. (2021) </t>
   </si>
   <si>
     <t>Spain</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t xml:space="preserve">Willey et al.(2022) </t>
   </si>
   <si>
+    <t xml:space="preserve">14 Brief Coping Inventory Strategies </t>
+  </si>
+  <si>
     <t>Yeung et al. (2022)</t>
   </si>
   <si>
@@ -182,12 +242,24 @@
     <t xml:space="preserve">Zhang et al. (2021) </t>
   </si>
   <si>
+    <t>Social Support Rate Scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simplified Coping Style Questionnaire </t>
+  </si>
+  <si>
     <t xml:space="preserve">Zhou et al.(2020) </t>
   </si>
   <si>
+    <t>Perceived Ability to Cope with Trauma (PACT Scale)</t>
+  </si>
+  <si>
     <t>Yao et al. (2023)</t>
   </si>
   <si>
+    <t xml:space="preserve"> No</t>
+  </si>
+  <si>
     <t>El-Khoury Malhame et al. (2023)</t>
   </si>
   <si>
@@ -203,64 +275,62 @@
     <t xml:space="preserve">Tu et al. (2023) </t>
   </si>
   <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
     <t>PHD Students</t>
   </si>
   <si>
+    <t xml:space="preserve">survey included two measures of social support, one to measure
+faculty support and one to measure peer support. </t>
+  </si>
+  <si>
     <t>Wang et. al (2023)</t>
   </si>
   <si>
+    <t>University Students</t>
+  </si>
+  <si>
     <t>Castiglioni et. al (2023)</t>
   </si>
   <si>
+    <t xml:space="preserve">Italy </t>
+  </si>
+  <si>
     <t>Barnicot et al (2023)</t>
   </si>
   <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Health Care Workers</t>
+  </si>
+  <si>
     <t>Morales et al (2023)</t>
   </si>
   <si>
+    <t xml:space="preserve">multi dimensional scale of social support </t>
+  </si>
+  <si>
     <t>Lan et al (2023)</t>
   </si>
   <si>
+    <t>General students</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kalaitzaki et al. (2023) </t>
   </si>
   <si>
+    <t xml:space="preserve"> no</t>
+  </si>
+  <si>
     <t>Bai et al. (2023)</t>
   </si>
   <si>
-    <t>25-29</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>University Students</t>
-  </si>
-  <si>
-    <t>General students</t>
-  </si>
-  <si>
     <t>Nurses/Healthcare workers</t>
-  </si>
-  <si>
-    <t>Health Care Workers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy </t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No</t>
   </si>
 </sst>
 </file>
@@ -299,11 +369,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,11 +653,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -599,9 +670,13 @@
     <col min="9" max="9" width="12.33203125" customWidth="1"/>
     <col min="10" max="10" width="21.83203125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="111.83203125" customWidth="1"/>
+    <col min="14" max="14" width="27.33203125" customWidth="1"/>
+    <col min="15" max="15" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,13 +710,25 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>22.257999999999999</v>
@@ -654,7 +741,7 @@
         <v>381</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>43.1</v>
@@ -663,21 +750,33 @@
         <v>59.3</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>65.194999999999993</v>
@@ -690,7 +789,7 @@
         <v>365</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>35</v>
@@ -699,21 +798,33 @@
         <v>31.8</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>55.78</v>
@@ -726,7 +837,7 @@
         <v>916</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>28.16</v>
@@ -735,21 +846,33 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <f>38.09*10.7/100+73.78*20.1/100+57.91*42.2/100+79.47*27/100</f>
@@ -762,7 +885,7 @@
         <v>422</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>32.700000000000003</v>
@@ -771,21 +894,33 @@
         <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K5">
         <v>2021</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>28</v>
@@ -797,7 +932,7 @@
         <v>12596</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>33.1</v>
@@ -806,21 +941,33 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>45.57</v>
@@ -832,27 +979,39 @@
         <v>300</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K7">
         <v>2023</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>47.73</v>
@@ -864,7 +1023,7 @@
         <v>352</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <v>35.36</v>
@@ -873,21 +1032,33 @@
         <v>24.2</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <v>2022</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>53.13</v>
@@ -900,7 +1071,7 @@
         <v>327</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <v>35</v>
@@ -909,21 +1080,33 @@
         <v>28.1</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>12.64</v>
@@ -935,7 +1118,7 @@
         <v>1424</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>46.7</v>
@@ -944,21 +1127,33 @@
         <v>21.9</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K10">
         <v>2022</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>78.400000000000006</v>
@@ -970,7 +1165,7 @@
         <v>251</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>35.409999999999997</v>
@@ -979,21 +1174,33 @@
         <v>45.79</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="K11">
         <v>2021</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>96.26</v>
@@ -1005,7 +1212,7 @@
         <v>266</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G12">
         <v>32.340000000000003</v>
@@ -1014,21 +1221,33 @@
         <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K12">
         <v>2022</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>47</v>
@@ -1040,7 +1259,7 @@
         <v>296</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>39.700000000000003</v>
@@ -1049,21 +1268,33 @@
         <v>41.2</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>21.6</v>
@@ -1075,7 +1306,7 @@
         <v>12686</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -1084,21 +1315,33 @@
         <v>43.6</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K14">
         <v>2022</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>36.51</v>
@@ -1110,7 +1353,7 @@
         <v>1951</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G15">
         <v>45.16</v>
@@ -1119,21 +1362,33 @@
         <v>47.1</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>47.95</v>
@@ -1145,7 +1400,7 @@
         <v>176</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>76.3</v>
@@ -1154,21 +1409,33 @@
         <v>74</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K16">
         <v>2022</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>21.9</v>
@@ -1180,27 +1447,39 @@
         <v>1510</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G17">
         <v>36.799999999999997</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K17">
         <v>2022</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>63.49</v>
@@ -1212,7 +1491,7 @@
         <v>292</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <v>21.2</v>
@@ -1221,21 +1500,33 @@
         <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="K18">
         <v>2021</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>67.17</v>
@@ -1247,27 +1538,39 @@
         <v>1790</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="H19">
         <v>0.6</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K19">
         <v>2021</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>58.34</v>
@@ -1279,7 +1582,7 @@
         <v>442</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G20">
         <v>45.3</v>
@@ -1288,21 +1591,33 @@
         <v>47.3</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K20">
         <v>2020</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>71.75</v>
@@ -1314,27 +1629,39 @@
         <v>1512</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G21">
         <v>32.46</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J21" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K21">
         <v>2023</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>30.33</v>
@@ -1346,7 +1673,7 @@
         <v>252</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G22">
         <v>25</v>
@@ -1355,21 +1682,33 @@
         <v>28.3</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K22">
         <v>2023</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>64.81</v>
@@ -1381,7 +1720,7 @@
         <v>166</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G23">
         <v>55</v>
@@ -1390,21 +1729,33 @@
         <v>61.62</v>
       </c>
       <c r="I23" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="K23">
         <v>2023</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>46.81</v>
@@ -1416,30 +1767,42 @@
         <v>290</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="H24">
         <v>42.4</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="K24">
         <v>2023</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>63.36</v>
@@ -1451,30 +1814,42 @@
         <v>100</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G25">
         <v>22.42</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K25">
         <v>2023</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>31.82</v>
@@ -1486,30 +1861,42 @@
         <v>733</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G26">
         <v>52.81</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K26">
         <v>2023</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>20.350000000000001</v>
@@ -1521,7 +1908,7 @@
         <v>854</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G27">
         <v>46.68</v>
@@ -1530,21 +1917,33 @@
         <v>18.3</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="K27">
         <v>2023</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <v>51.44</v>
@@ -1556,30 +1955,42 @@
         <v>785</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H28">
         <v>34.79</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K28">
         <v>2023</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" t="s">
+        <v>91</v>
+      </c>
+      <c r="N28" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>62.83</v>
@@ -1591,7 +2002,7 @@
         <v>115</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G29">
         <v>22.37</v>
@@ -1600,21 +2011,33 @@
         <v>49</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="K29">
         <v>2023</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" t="s">
+        <v>60</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C30">
         <f>(53.97*253+45.56*176)/(253+176)</f>
@@ -1628,7 +2051,7 @@
         <v>429</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G30">
         <v>41.6</v>
@@ -1637,21 +2060,33 @@
         <v>22.5</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="K30">
         <v>2023</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" t="s">
+        <v>95</v>
+      </c>
+      <c r="N30" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C31">
         <v>75.47</v>
@@ -1663,7 +2098,7 @@
         <v>407</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G31">
         <v>34.1</v>
@@ -1672,13 +2107,25 @@
         <v>20.3</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="K31">
         <v>2023</v>
+      </c>
+      <c r="L31" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/ptg_shortlist.xlsx
+++ b/ptg_shortlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A7EE04-2DF3-6348-9F96-B62611FCB6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4460240-41B4-7E4C-BFAC-CDDDB2ABB9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="1520" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="100">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -331,6 +329,12 @@
   </si>
   <si>
     <t>Nurses/Healthcare workers</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
   </si>
 </sst>
 </file>
@@ -653,9 +657,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -673,10 +679,10 @@
     <col min="12" max="12" width="32.6640625" customWidth="1"/>
     <col min="13" max="13" width="111.83203125" customWidth="1"/>
     <col min="14" max="14" width="27.33203125" customWidth="1"/>
-    <col min="15" max="15" width="51" customWidth="1"/>
+    <col min="15" max="15" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -722,8 +728,14 @@
       <c r="O1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -771,7 +783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -819,7 +831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -867,7 +879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -915,7 +927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -962,7 +974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1006,7 +1018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1053,7 +1065,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1101,7 +1113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1148,7 +1160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1195,7 +1207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1242,7 +1254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1289,7 +1301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1336,7 +1348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1383,7 +1395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>61</v>
       </c>

--- a/ptg_shortlist.xlsx
+++ b/ptg_shortlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AA9B24-1872-CD45-9EBE-04C7D9F0914D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A0D94-4A53-8744-9D3E-8BE19CD5EB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36240" yWindow="2760" windowWidth="28800" windowHeight="16380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34200" yWindow="500" windowWidth="19200" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="117">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t>Anxiety</t>
+  </si>
+  <si>
+    <t>cross-sectional</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -712,134 +715,137 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="21.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="32.6640625" customWidth="1"/>
-    <col min="15" max="15" width="104.1640625" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" customWidth="1"/>
-    <col min="17" max="17" width="51" customWidth="1"/>
-    <col min="18" max="18" width="21.5" customWidth="1"/>
-    <col min="19" max="19" width="72.5" customWidth="1"/>
+    <col min="1" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="104.1640625" customWidth="1"/>
+    <col min="17" max="17" width="27.33203125" customWidth="1"/>
+    <col min="18" max="18" width="51" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>22.257999999999999</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5.0519999999999996</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f>226+155</f>
         <v>381</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>43.1</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>59.3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2022</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
       <c r="Q2" t="s">
         <v>23</v>
       </c>
@@ -849,51 +855,54 @@
       <c r="S2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>41</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
       </c>
       <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>65.194999999999993</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>17.943999999999999</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f>94+141+84+46</f>
         <v>365</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>35</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>31.8</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2021</v>
       </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
       <c r="O3" t="s">
         <v>23</v>
       </c>
@@ -909,51 +918,54 @@
       <c r="S3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>55.78</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>19.100000000000001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f>517+399</f>
         <v>916</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>28.16</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>30</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2022</v>
       </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
       <c r="O4" t="s">
         <v>23</v>
       </c>
@@ -969,51 +981,54 @@
       <c r="S4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
-        <v>63</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
       </c>
       <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f>38.09*10.7/100+73.78*20.1/100+57.91*42.2/100+79.47*27/100</f>
         <v>64.800330000000002</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>10.44</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>422</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>32.700000000000003</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>55</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>32</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>33</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2021</v>
       </c>
-      <c r="N5" t="s">
-        <v>23</v>
-      </c>
       <c r="O5" t="s">
         <v>23</v>
       </c>
@@ -1029,112 +1044,118 @@
       <c r="S5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
-        <v>63</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
       </c>
       <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>28</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>11.5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>12596</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>33.1</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>35</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>36</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2020</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>37</v>
       </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
       <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" t="s">
-        <v>23</v>
-      </c>
       <c r="R6" t="s">
         <v>23</v>
       </c>
       <c r="S6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
-        <v>63</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
       </c>
       <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45.57</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>11.7</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>300</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>50</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>40</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>20</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2023</v>
       </c>
-      <c r="N7" t="s">
-        <v>41</v>
-      </c>
       <c r="O7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" t="s">
         <v>42</v>
       </c>
-      <c r="P7" t="s">
-        <v>23</v>
-      </c>
       <c r="Q7" t="s">
         <v>23</v>
       </c>
@@ -1144,110 +1165,116 @@
       <c r="S7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
-        <v>41</v>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
       </c>
       <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>47.73</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>24.63</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>352</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>35.36</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>24.2</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>44</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>27</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2022</v>
       </c>
-      <c r="N8" t="s">
-        <v>41</v>
-      </c>
       <c r="O8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" t="s">
         <v>45</v>
       </c>
-      <c r="P8" t="s">
-        <v>41</v>
-      </c>
       <c r="Q8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" t="s">
         <v>46</v>
       </c>
-      <c r="R8" t="s">
-        <v>41</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
-        <v>63</v>
+      <c r="B9">
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>63</v>
       </c>
       <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>53.13</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>17.22</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f>235+92</f>
         <v>327</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>35</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>28.1</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>32</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>27</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2021</v>
       </c>
-      <c r="N9" t="s">
-        <v>23</v>
-      </c>
       <c r="O9" t="s">
         <v>23</v>
       </c>
@@ -1263,56 +1290,59 @@
       <c r="S9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
-        <v>63</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
       </c>
       <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>12.64</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>11.01</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1424</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>46.7</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>21.9</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>49</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>20</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2022</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>21</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>50</v>
       </c>
-      <c r="P10" t="s">
-        <v>23</v>
-      </c>
       <c r="Q10" t="s">
         <v>23</v>
       </c>
@@ -1322,50 +1352,53 @@
       <c r="S10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
-        <v>63</v>
+      <c r="B11">
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
       </c>
       <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>78.400000000000006</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>14</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>251</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>35.409999999999997</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>45.79</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>32</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>52</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2021</v>
       </c>
-      <c r="N11" t="s">
-        <v>23</v>
-      </c>
       <c r="O11" t="s">
         <v>23</v>
       </c>
@@ -1381,56 +1414,59 @@
       <c r="S11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
-        <v>63</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
       </c>
       <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>96.26</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>21.57</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>266</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>32.340000000000003</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>24</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>32</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>36</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2022</v>
       </c>
-      <c r="N12" t="s">
-        <v>41</v>
-      </c>
       <c r="O12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" t="s">
         <v>54</v>
       </c>
-      <c r="P12" t="s">
-        <v>23</v>
-      </c>
       <c r="Q12" t="s">
         <v>23</v>
       </c>
@@ -1440,56 +1476,59 @@
       <c r="S12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
-        <v>63</v>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
       </c>
       <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>47</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>28.2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>296</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>39.700000000000003</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>41.2</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>35</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>27</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2021</v>
       </c>
-      <c r="N13" t="s">
-        <v>41</v>
-      </c>
       <c r="O13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" t="s">
         <v>56</v>
       </c>
-      <c r="P13" t="s">
-        <v>23</v>
-      </c>
       <c r="Q13" t="s">
         <v>23</v>
       </c>
@@ -1499,56 +1538,59 @@
       <c r="S13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" t="s">
-        <v>63</v>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>21.6</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>6.8</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>12686</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>16</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>43.6</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>58</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>27</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2022</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>21</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>59</v>
       </c>
-      <c r="P14" t="s">
-        <v>23</v>
-      </c>
       <c r="Q14" t="s">
         <v>23</v>
       </c>
@@ -1556,54 +1598,57 @@
         <v>23</v>
       </c>
       <c r="S14" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>61</v>
       </c>
-      <c r="B15" t="s">
-        <v>41</v>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>36.51</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>7.6</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1951</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>45.16</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>47.1</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>62</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>27</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2021</v>
       </c>
-      <c r="N15" t="s">
-        <v>63</v>
-      </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="P15" t="s">
         <v>23</v>
@@ -1612,111 +1657,117 @@
         <v>23</v>
       </c>
       <c r="R15" t="s">
-        <v>41</v>
-      </c>
-      <c r="S15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" t="s">
+        <v>41</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="B16" t="s">
-        <v>41</v>
+      <c r="B16">
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
       <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>47.95</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>24.48</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>176</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>76.3</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>74</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>35</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>27</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2022</v>
       </c>
-      <c r="N16" t="s">
-        <v>23</v>
-      </c>
       <c r="O16" t="s">
         <v>23</v>
       </c>
       <c r="P16" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Q16" t="s">
+        <v>41</v>
+      </c>
+      <c r="R16" t="s">
         <v>65</v>
       </c>
-      <c r="R16" t="s">
-        <v>41</v>
-      </c>
       <c r="S16" t="s">
+        <v>41</v>
+      </c>
+      <c r="T16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>67</v>
       </c>
-      <c r="B17" t="s">
-        <v>63</v>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
       </c>
       <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>21.9</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1510</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>36.799999999999997</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>32</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>36</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2022</v>
       </c>
-      <c r="N17" t="s">
-        <v>23</v>
-      </c>
       <c r="O17" t="s">
         <v>23</v>
       </c>
@@ -1727,55 +1778,58 @@
         <v>23</v>
       </c>
       <c r="R17" t="s">
-        <v>41</v>
-      </c>
-      <c r="S17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" t="s">
+        <v>41</v>
+      </c>
+      <c r="T17" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>68</v>
       </c>
-      <c r="B18" t="s">
-        <v>63</v>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
       </c>
       <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>63.49</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>20.64</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>292</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>21.2</v>
       </c>
-      <c r="J18">
-        <v>63</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="K18">
+        <v>63</v>
+      </c>
+      <c r="L18" t="s">
         <v>69</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>70</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2021</v>
       </c>
-      <c r="N18" t="s">
-        <v>23</v>
-      </c>
       <c r="O18" t="s">
         <v>23</v>
       </c>
@@ -1791,162 +1845,171 @@
       <c r="S18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>71</v>
       </c>
-      <c r="B19" t="s">
-        <v>63</v>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
       </c>
       <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>67.17</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>14.79</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1790</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.6</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>35</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>36</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2021</v>
       </c>
-      <c r="N19" t="s">
-        <v>41</v>
-      </c>
       <c r="O19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" t="s">
         <v>72</v>
       </c>
-      <c r="P19" t="s">
-        <v>41</v>
-      </c>
       <c r="Q19" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" t="s">
         <v>73</v>
       </c>
-      <c r="R19" t="s">
-        <v>41</v>
-      </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" t="s">
+        <v>41</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>74</v>
       </c>
-      <c r="B20" t="s">
-        <v>41</v>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
       </c>
       <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>58.34</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>26.76</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>442</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>45.3</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>47.3</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>35</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>27</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2020</v>
       </c>
-      <c r="N20" t="s">
-        <v>41</v>
-      </c>
       <c r="O20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" t="s">
         <v>75</v>
       </c>
-      <c r="P20" t="s">
-        <v>41</v>
-      </c>
       <c r="Q20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" t="s">
         <v>76</v>
       </c>
-      <c r="R20" t="s">
-        <v>41</v>
-      </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" t="s">
+        <v>41</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
-        <v>63</v>
+      <c r="B21">
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
       </c>
       <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
         <v>25</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>71.75</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>18.53</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1512</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>32.46</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>32</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>36</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>2023</v>
       </c>
-      <c r="N21" t="s">
-        <v>63</v>
-      </c>
       <c r="O21" t="s">
         <v>63</v>
       </c>
@@ -1957,55 +2020,58 @@
         <v>63</v>
       </c>
       <c r="R21" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="S21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>80</v>
       </c>
-      <c r="B22" t="s">
-        <v>63</v>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
       </c>
       <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>30.33</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>11.65</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>252</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>25</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>28.3</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>81</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>27</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>2023</v>
       </c>
-      <c r="N22" t="s">
-        <v>23</v>
-      </c>
       <c r="O22" t="s">
         <v>23</v>
       </c>
@@ -2016,55 +2082,58 @@
         <v>23</v>
       </c>
       <c r="R22" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="S22" t="s">
+        <v>41</v>
+      </c>
+      <c r="T22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>83</v>
       </c>
-      <c r="B23" t="s">
-        <v>63</v>
+      <c r="B23">
+        <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
       </c>
       <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>64.81</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>20.27</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>166</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>55</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>61.62</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>40</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>84</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>2023</v>
       </c>
-      <c r="N23" t="s">
-        <v>23</v>
-      </c>
       <c r="O23" t="s">
         <v>23</v>
       </c>
@@ -2075,114 +2144,120 @@
         <v>23</v>
       </c>
       <c r="R23" t="s">
-        <v>41</v>
-      </c>
-      <c r="S23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" t="s">
+        <v>41</v>
+      </c>
+      <c r="T23" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>41</v>
+      <c r="B24" s="1">
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>46.81</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>11.93</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>290</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>42.4</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2023</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Q24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="S24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T24" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>88</v>
       </c>
-      <c r="B25" t="s">
-        <v>63</v>
+      <c r="B25">
+        <v>0</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
       </c>
       <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>63.36</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>20.91</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>100</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>22.42</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2023</v>
       </c>
-      <c r="N25" t="s">
-        <v>63</v>
-      </c>
       <c r="O25" t="s">
         <v>63</v>
       </c>
@@ -2193,55 +2268,58 @@
         <v>63</v>
       </c>
       <c r="R25" t="s">
+        <v>63</v>
+      </c>
+      <c r="S25" t="s">
         <v>21</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
+      <c r="B26" s="1">
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>31.82</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>23.1</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>733</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>52.81</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2023</v>
       </c>
-      <c r="N26" t="s">
-        <v>63</v>
-      </c>
       <c r="O26" t="s">
         <v>63</v>
       </c>
@@ -2252,55 +2330,58 @@
         <v>63</v>
       </c>
       <c r="R26" t="s">
-        <v>41</v>
-      </c>
-      <c r="S26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S26" t="s">
+        <v>41</v>
+      </c>
+      <c r="T26" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>92</v>
       </c>
-      <c r="B27" t="s">
-        <v>41</v>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
       </c>
       <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
         <v>17</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>20.350000000000001</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>10.92</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>854</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>46.68</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>18.3</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2023</v>
       </c>
-      <c r="N27" t="s">
-        <v>63</v>
-      </c>
       <c r="O27" t="s">
         <v>63</v>
       </c>
@@ -2311,114 +2392,120 @@
         <v>63</v>
       </c>
       <c r="R27" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="S27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>95</v>
       </c>
-      <c r="B28" t="s">
-        <v>41</v>
+      <c r="B28" s="1">
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>51.44</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>12.5</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>785</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28">
+      <c r="J28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28">
         <v>34.79</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2023</v>
       </c>
-      <c r="N28" t="s">
-        <v>41</v>
-      </c>
       <c r="O28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" t="s">
         <v>96</v>
       </c>
-      <c r="P28" t="s">
-        <v>23</v>
-      </c>
       <c r="Q28" t="s">
         <v>23</v>
       </c>
       <c r="R28" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="S28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>97</v>
       </c>
-      <c r="B29" t="s">
-        <v>63</v>
+      <c r="B29">
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
       </c>
       <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s">
         <v>25</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>62.83</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>23.19</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>115</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>22.37</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>49</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>2023</v>
       </c>
-      <c r="N29" t="s">
-        <v>63</v>
-      </c>
       <c r="O29" t="s">
         <v>63</v>
       </c>
@@ -2429,116 +2516,122 @@
         <v>63</v>
       </c>
       <c r="R29" t="s">
+        <v>63</v>
+      </c>
+      <c r="S29" t="s">
         <v>21</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>99</v>
       </c>
-      <c r="B30" t="s">
-        <v>63</v>
+      <c r="B30">
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
       </c>
       <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
         <v>25</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <f>(53.97*253+45.56*176)/(253+176)</f>
         <v>50.519743589743591</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>20</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f>253+176</f>
         <v>429</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>41.6</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>22.5</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>2023</v>
       </c>
-      <c r="N30" t="s">
-        <v>63</v>
-      </c>
       <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s">
         <v>100</v>
       </c>
-      <c r="P30" t="s">
-        <v>41</v>
-      </c>
       <c r="Q30" t="s">
+        <v>41</v>
+      </c>
+      <c r="R30" t="s">
         <v>46</v>
       </c>
-      <c r="R30" t="s">
-        <v>41</v>
-      </c>
       <c r="S30" t="s">
+        <v>41</v>
+      </c>
+      <c r="T30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>101</v>
       </c>
-      <c r="B31" t="s">
-        <v>63</v>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
       </c>
       <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
         <v>25</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>75.47</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>21.8</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>407</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>34.1</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>20.3</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>2023</v>
       </c>
-      <c r="N31" t="s">
-        <v>63</v>
-      </c>
       <c r="O31" t="s">
         <v>63</v>
       </c>
@@ -2549,17 +2642,20 @@
         <v>63</v>
       </c>
       <c r="R31" t="s">
+        <v>63</v>
+      </c>
+      <c r="S31" t="s">
         <v>21</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="H38" s="1"/>
-      <c r="I38" s="2"/>
-      <c r="K38" s="1"/>
-      <c r="O38" s="3"/>
+    <row r="38" spans="9:16" x14ac:dyDescent="0.15">
+      <c r="I38" s="1"/>
+      <c r="J38" s="2"/>
+      <c r="L38" s="1"/>
+      <c r="P38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
